--- a/ONCHO/OEM/Congo/2023/cg_oncho_oem_202303_1_site_dbs.xlsx
+++ b/ONCHO/OEM/Congo/2023/cg_oncho_oem_202303_1_site_dbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\OEM\Congo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7BC44-4910-43C7-B827-F3E9D903231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82430276-704A-4D3C-9E94-40EE280BB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -269,21 +269,9 @@
     <t>Veuillez entrer l'âge du participant</t>
   </si>
   <si>
-    <t>Doit être entre 5 et 9 ans</t>
-  </si>
-  <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>L'âge doit être compris entre 5 et 9 ans</t>
-  </si>
-  <si>
     <t>dbs_collected</t>
   </si>
   <si>
-    <t>Collecte de DBS chez les enfants 5-9 ans</t>
-  </si>
-  <si>
     <t>${consent} = 'Oui' and ${age_yrs} &gt;= 5 and ${age_yrs} &lt;= 9  and ${add_participant} = 'Oui'</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>cg_oncho_oem_202303_1_site_participant</t>
-  </si>
-  <si>
     <t>Departement</t>
   </si>
   <si>
@@ -599,7 +584,22 @@
     <t>Fils ou fille</t>
   </si>
   <si>
-    <t>(2023 Mars) CEO - 1. Participant</t>
+    <t>. &gt;= 18</t>
+  </si>
+  <si>
+    <t>Doit être plus de 18 ans</t>
+  </si>
+  <si>
+    <t>Collecte de DBS chez les adultes (18 ans et plus)</t>
+  </si>
+  <si>
+    <t>(2023 Mars) CEO - 1. Fiche DBS</t>
+  </si>
+  <si>
+    <t>cg_oncho_oem_202303_1_site_dbs</t>
+  </si>
+  <si>
+    <t>L'âge doit être 18 ans et plus</t>
   </si>
 </sst>
 </file>
@@ -1059,11 +1059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>44</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>47</v>
@@ -1461,13 +1461,13 @@
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D18" s="13"/>
       <c r="H18" s="3" t="s">
@@ -1506,13 +1506,13 @@
         <v>76</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>64</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D21" s="13"/>
       <c r="H21" s="3" t="s">
@@ -1544,14 +1544,14 @@
         <v>55</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D22" s="13"/>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>20</v>
@@ -1562,14 +1562,14 @@
         <v>55</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="13"/>
       <c r="H23" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>20</v>
@@ -1580,17 +1580,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D24" s="13"/>
       <c r="G24" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>20</v>
@@ -1601,14 +1601,14 @@
         <v>14</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" s="13"/>
       <c r="H25" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>20</v>
@@ -1616,17 +1616,17 @@
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="31.5">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="13"/>
       <c r="H27" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>20</v>
@@ -1637,10 +1637,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="13"/>
       <c r="H28" s="3" t="s">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1664,30 +1664,30 @@
         <v>43</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="13"/>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1717,7 +1717,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -1735,10 +1735,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
@@ -1748,62 +1748,62 @@
         <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="11"/>
@@ -1813,10 +1813,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
@@ -1826,227 +1826,227 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1">
       <c r="A10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -2056,104 +2056,104 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
@@ -2166,441 +2166,441 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="C41" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2628,24 +2628,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2671,277 +2671,277 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
